--- a/biology/Zoologie/Achondrostoma/Achondrostoma.xlsx
+++ b/biology/Zoologie/Achondrostoma/Achondrostoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achondrostoma est un genre de poissons téléostéens de la famille des Cyprinidae (ordre des Cypriniformes)
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Achondrostoma sont endémique de la péninsule ibérique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Achondrostoma sont endémique de la péninsule ibérique.
 </t>
         </is>
       </c>
@@ -542,14 +556,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (3 avril 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (3 avril 2024) :
 Achondrostoma arcasii (Steindachner, 1866)
 Achondrostoma occidentale (Robalo, Almada, Sousa Santos, Moreira &amp; Doadrio, 2005)
 Achondrostoma oligolepis (Robalo, Doadrio, Almada &amp; Kottelat, 2005)
 Achondrostoma salmantinum Doadrio &amp; Elvira, 2007
-Auxquelles, FishBase                                           (3 avril 2024)[3] ajoute les trois espèces suivantes décrites en 2023[4] :
+Auxquelles, FishBase                                           (3 avril 2024) ajoute les trois espèces suivantes décrites en 2023 :
 Achondrostoma asturicense Doadrio, Casal-López &amp; Perea, 2023
 Achondrostoma garzonorum Doadrio, Casal-López &amp; Perea, 2023
 Achondrostoma numantinum Doadrio, Casal-López &amp; Perea, 2023</t>
